--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2276.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2276.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.147851775957508</v>
+        <v>1.214000701904297</v>
       </c>
       <c r="B1">
-        <v>2.756131152834097</v>
+        <v>2.587107419967651</v>
       </c>
       <c r="C1">
-        <v>4.763731051920213</v>
+        <v>4.282364845275879</v>
       </c>
       <c r="D1">
-        <v>3.068960152872059</v>
+        <v>2.042232275009155</v>
       </c>
       <c r="E1">
-        <v>1.226345525338951</v>
+        <v>1.16678786277771</v>
       </c>
     </row>
   </sheetData>
